--- a/Commas_to_Wkbk/randomnums.xlsx
+++ b/Commas_to_Wkbk/randomnums.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.donohue\Desktop\python\Commas_to_Wkbk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.donohue\Desktop\Projects\python\Commas_to_Wkbk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,17 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">	5055991</t>
+  </si>
+  <si>
+    <t>A953481</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,8 +508,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -820,1287 +834,1217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A255"/>
+  <dimension ref="A1:A241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="K248" sqref="K248"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="A243" sqref="A242:B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1231231</v>
+      <c r="A1" s="1">
+        <v>493342</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1231231</v>
+      <c r="A2" s="1">
+        <v>1187745</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1231231</v>
+      <c r="A3" s="1">
+        <v>1867078</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>21412412</v>
+      <c r="A4" s="1">
+        <v>3370118</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>21412412</v>
+      <c r="A5" s="1">
+        <v>3731268</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>21412412</v>
+      <c r="A6" s="1">
+        <v>3750449</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>21412412</v>
+      <c r="A7" s="1">
+        <v>3782461</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>21412412</v>
+      <c r="A8" s="1">
+        <v>4376869</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>21412412</v>
+      <c r="A9" s="1">
+        <v>4469284</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>21412412</v>
+      <c r="A10" s="1">
+        <v>4478258</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>21412412</v>
+      <c r="A11" s="1">
+        <v>4519154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>21412412</v>
+      <c r="A12" s="1">
+        <v>4541653</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>21412412</v>
+      <c r="A13" s="1">
+        <v>4630789</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>21412412</v>
+      <c r="A14" s="1">
+        <v>4657546</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>21412412</v>
+      <c r="A15" s="1">
+        <v>4657705</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>21412412</v>
+      <c r="A16" s="1">
+        <v>4675909</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>21412412</v>
+      <c r="A17" s="1">
+        <v>4683995</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>21412412</v>
+      <c r="A18" s="1">
+        <v>4692098</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>21412412</v>
+      <c r="A19" s="1">
+        <v>4705668</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>21412412</v>
+      <c r="A20" s="1">
+        <v>4723190</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>21412412</v>
+      <c r="A21" s="1">
+        <v>4726394</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21412412</v>
+      <c r="A22" s="1">
+        <v>4728564</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21412412</v>
+      <c r="A23" s="1">
+        <v>4732818</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>21412412</v>
+      <c r="A24" s="1">
+        <v>4749902</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>21412412</v>
+      <c r="A25" s="1">
+        <v>4759075</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>21412412</v>
+      <c r="A26" s="1">
+        <v>4763097</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>21412412</v>
+      <c r="A27" s="1">
+        <v>4763763</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>21412412</v>
+      <c r="A28" s="1">
+        <v>4777213</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>21412412</v>
+      <c r="A29" s="1">
+        <v>4786258</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>21412412</v>
+      <c r="A30" s="1">
+        <v>4791104</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>21412412</v>
+      <c r="A31" s="1">
+        <v>4804988</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>21412412</v>
+      <c r="A32" s="1">
+        <v>4811699</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>21412412</v>
+      <c r="A33" s="1">
+        <v>4812471</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>21412412</v>
+      <c r="A34" s="1">
+        <v>4819275</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>21412412</v>
+      <c r="A35" s="1">
+        <v>4819490</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>21412412</v>
+      <c r="A36" s="1">
+        <v>4820518</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>21412412</v>
+      <c r="A37" s="1">
+        <v>4821570</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>21412412</v>
+      <c r="A38" s="1">
+        <v>4823078</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>21412412</v>
+      <c r="A39" s="1">
+        <v>4824619</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>21412412</v>
+      <c r="A40" s="1">
+        <v>4827945</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>21412412</v>
+      <c r="A41" s="1">
+        <v>4827961</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>21412412</v>
+      <c r="A42" s="1">
+        <v>4828318</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>21412412</v>
+      <c r="A43" s="1">
+        <v>4829323</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>21412412</v>
+      <c r="A44" s="1">
+        <v>4831829</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>21412412</v>
+      <c r="A45" s="1">
+        <v>4832459</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>21412412</v>
+      <c r="A46" s="1">
+        <v>4832625</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>21412412</v>
+      <c r="A47" s="1">
+        <v>4832903</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>21412412</v>
+      <c r="A48" s="1">
+        <v>4832940</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>21412412</v>
+      <c r="A49" s="1">
+        <v>4836581</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>21412412</v>
+      <c r="A50" s="1">
+        <v>4840316</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>21412412</v>
+      <c r="A51" s="1">
+        <v>4840947</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>21412412</v>
+      <c r="A52" s="1">
+        <v>4848195</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>21412412</v>
+      <c r="A53" s="1">
+        <v>4848196</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>21412412</v>
+      <c r="A54" s="1">
+        <v>4849591</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>21412412</v>
+      <c r="A55" s="1">
+        <v>4850478</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>21412412</v>
+      <c r="A56" s="1">
+        <v>4851527</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>21412412</v>
+      <c r="A57" s="1">
+        <v>4858644</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>21412412</v>
+      <c r="A58" s="1">
+        <v>4860518</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>21412412</v>
+      <c r="A59" s="1">
+        <v>4862933</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>21412412</v>
+      <c r="A60" s="1">
+        <v>4870575</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>21412412</v>
+      <c r="A61" s="1">
+        <v>4870663</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>21412412</v>
+      <c r="A62" s="1">
+        <v>4875752</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>21412412</v>
+      <c r="A63" s="1">
+        <v>4876589</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>21412412</v>
+      <c r="A64" s="1">
+        <v>4877356</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>21412412</v>
+      <c r="A65" s="1">
+        <v>4879143</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>21412412</v>
+      <c r="A66" s="1">
+        <v>4887051</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>21412412</v>
+      <c r="A67" s="1">
+        <v>4887893</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>21412412</v>
+      <c r="A68" s="1">
+        <v>4887986</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>21412412</v>
+      <c r="A69" s="1">
+        <v>4888828</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>21412412</v>
+      <c r="A70" s="1">
+        <v>4889015</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>21412412</v>
+      <c r="A71" s="1">
+        <v>4889167</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>21412412</v>
+      <c r="A72" s="1">
+        <v>4889196</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>21412412</v>
+      <c r="A73" s="1">
+        <v>4890378</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>21412412</v>
+      <c r="A74" s="1">
+        <v>4891987</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>21412412</v>
+      <c r="A75" s="1">
+        <v>4895463</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>21412412</v>
+      <c r="A76" s="1">
+        <v>4897874</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>21412412</v>
+      <c r="A77" s="1">
+        <v>4901770</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>21412412</v>
+      <c r="A78" s="1">
+        <v>4903647</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>21412412</v>
+      <c r="A79" s="1">
+        <v>4907500</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>21412412</v>
+      <c r="A80" s="1">
+        <v>4908645</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>21412412</v>
+      <c r="A81" s="1">
+        <v>4908654</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>21412412</v>
+      <c r="A82" s="1">
+        <v>4908920</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>21412412</v>
+      <c r="A83" s="1">
+        <v>4911660</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>21412412</v>
+      <c r="A84" s="1">
+        <v>4912641</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>21412412</v>
+      <c r="A85" s="1">
+        <v>4913459</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>21412412</v>
+      <c r="A86" s="1">
+        <v>4914087</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>21412412</v>
+      <c r="A87" s="1">
+        <v>4915935</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>21412412</v>
+      <c r="A88" s="1">
+        <v>4918531</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>21412412</v>
+      <c r="A89" s="1">
+        <v>4918548</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>21412412</v>
+      <c r="A90" s="1">
+        <v>4919834</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>21412412</v>
+      <c r="A91" s="1">
+        <v>4920379</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>21412412</v>
+      <c r="A92" s="1">
+        <v>4921040</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>21412412</v>
+      <c r="A93" s="1">
+        <v>4922687</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>21412412</v>
+      <c r="A94" s="1">
+        <v>4923613</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>21412412</v>
+      <c r="A95" s="1">
+        <v>4924524</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>21412412</v>
+      <c r="A96" s="1">
+        <v>4925042</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>21412412</v>
+      <c r="A97" s="1">
+        <v>4925058</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>21412412</v>
+      <c r="A98" s="1">
+        <v>4930157</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>21412412</v>
+      <c r="A99" s="1">
+        <v>4931405</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>21412412</v>
+      <c r="A100" s="1">
+        <v>4932165</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>21412412</v>
+      <c r="A101" s="1">
+        <v>4936244</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>21412412</v>
+      <c r="A102" s="1">
+        <v>4937174</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>21412412</v>
+      <c r="A103" s="1">
+        <v>4938041</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>21412412</v>
+      <c r="A104" s="1">
+        <v>4938186</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>21412412</v>
+      <c r="A105" s="1">
+        <v>4941508</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>21412412</v>
+      <c r="A106" s="1">
+        <v>4942989</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>21412412</v>
+      <c r="A107" s="1">
+        <v>4944999</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>21412412</v>
+      <c r="A108" s="1">
+        <v>4945160</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>21412412</v>
+      <c r="A109" s="1">
+        <v>4946214</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>21412412</v>
+      <c r="A110" s="1">
+        <v>4946463</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>21412412</v>
+      <c r="A111" s="1">
+        <v>4946612</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>21412412</v>
+      <c r="A112" s="1">
+        <v>4947077</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>21412412</v>
+      <c r="A113" s="1">
+        <v>4948776</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>21412412</v>
+      <c r="A114" s="1">
+        <v>4949103</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>21412412</v>
+      <c r="A115" s="1">
+        <v>4949717</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>21412412</v>
+      <c r="A116" s="1">
+        <v>4949733</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>21412412</v>
+      <c r="A117" s="1">
+        <v>4949734</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>21412412</v>
+      <c r="A118" s="1">
+        <v>4949799</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>21412412</v>
+      <c r="A119" s="1">
+        <v>4949806</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>21412412</v>
+      <c r="A120" s="1">
+        <v>4949840</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>21412412</v>
+      <c r="A121" s="1">
+        <v>4949895</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>21412412</v>
+      <c r="A122" s="1">
+        <v>4950026</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>21412412</v>
+      <c r="A123" s="1">
+        <v>4950057</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>21412412</v>
+      <c r="A124" s="1">
+        <v>4950064</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>21412412</v>
+      <c r="A125" s="1">
+        <v>4951020</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>21412412</v>
+      <c r="A126" s="1">
+        <v>4951181</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>21412412</v>
+      <c r="A127" s="1">
+        <v>4951732</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>21412412</v>
+      <c r="A128" s="1">
+        <v>4953622</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>21412412</v>
+      <c r="A129" s="1">
+        <v>4953638</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>21412412</v>
+      <c r="A130" s="1">
+        <v>4955115</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>21412412</v>
+      <c r="A131" s="1">
+        <v>4956046</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>21412412</v>
+      <c r="A132" s="1">
+        <v>4956318</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>21412412</v>
+      <c r="A133" s="1">
+        <v>4961716</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>21412412</v>
+      <c r="A134" s="1">
+        <v>4961732</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>21412412</v>
+      <c r="A135" s="1">
+        <v>4963766</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>21412412</v>
+      <c r="A136" s="1">
+        <v>4964480</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>21412412</v>
+      <c r="A137" s="1">
+        <v>4966169</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>21412412</v>
+      <c r="A138" s="1">
+        <v>4966777</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>21412412</v>
+      <c r="A139" s="1">
+        <v>4970115</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>21412412</v>
+      <c r="A140" s="1">
+        <v>4970353</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>21412412</v>
+      <c r="A141" s="1">
+        <v>4971111</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>21412412</v>
+      <c r="A142" s="1">
+        <v>4971807</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>21412412</v>
+      <c r="A143" s="1">
+        <v>4971843</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>21412412</v>
+      <c r="A144" s="1">
+        <v>4971973</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>21412412</v>
+      <c r="A145" s="1">
+        <v>4973497</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>21412412</v>
+      <c r="A146" s="1">
+        <v>4974354</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>21412412</v>
+      <c r="A147" s="1">
+        <v>4974968</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>21412412</v>
+      <c r="A148" s="1">
+        <v>4974968</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>21412412</v>
+      <c r="A149" s="1">
+        <v>4975070</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>21412412</v>
+      <c r="A150" s="1">
+        <v>4975194</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>21412412</v>
+      <c r="A151" s="1">
+        <v>4976104</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>21412412</v>
+      <c r="A152" s="1">
+        <v>4976248</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>21412412</v>
+      <c r="A153" s="1">
+        <v>4976289</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>21412412</v>
+      <c r="A154" s="1">
+        <v>4976535</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>21412412</v>
+      <c r="A155" s="1">
+        <v>4980295</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>21412412</v>
+      <c r="A156" s="1">
+        <v>4983439</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>21412412</v>
+      <c r="A157" s="1">
+        <v>4984562</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>21412412</v>
+      <c r="A158" s="1">
+        <v>4984615</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>21412412</v>
+      <c r="A159" s="1">
+        <v>4984615</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>21412412</v>
+      <c r="A160" s="1">
+        <v>4986916</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>21412412</v>
+      <c r="A161" s="1">
+        <v>4989303</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>21412412</v>
+      <c r="A162" s="1">
+        <v>4991546</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>21412412</v>
+      <c r="A163" s="1">
+        <v>4991752</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>21412412</v>
+      <c r="A164" s="1">
+        <v>4992335</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>21412412</v>
+      <c r="A165" s="1">
+        <v>4997791</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>21412412</v>
+      <c r="A166" s="1">
+        <v>4997807</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>21412412</v>
+      <c r="A167" s="1">
+        <v>5001176</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>21412412</v>
+      <c r="A168" s="1">
+        <v>5002194</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>21412412</v>
+      <c r="A169" s="1">
+        <v>5011485</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>21412412</v>
+      <c r="A170" s="1">
+        <v>5016188</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>21412412</v>
+      <c r="A171" s="1">
+        <v>5020804</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>21412412</v>
+      <c r="A172" s="1">
+        <v>5027710</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>21412412</v>
+      <c r="A173" s="1">
+        <v>5031325</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>21412412</v>
+      <c r="A174" s="1">
+        <v>5032452</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>21412412</v>
+      <c r="A175" s="1">
+        <v>5033841</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>21412412</v>
+      <c r="A176" s="1">
+        <v>5036610</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>21412412</v>
+      <c r="A177" s="1">
+        <v>5036636</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>21412412</v>
+      <c r="A178" s="1">
+        <v>5036708</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>21412412</v>
+      <c r="A179" s="1">
+        <v>5037704</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>21412412</v>
+      <c r="A180" s="1">
+        <v>5039674</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>21412412</v>
+      <c r="A181" s="1">
+        <v>5039679</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>21412412</v>
+      <c r="A182" s="1">
+        <v>5040937</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>21412412</v>
+      <c r="A183" s="1">
+        <v>5041040</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>21412412</v>
+      <c r="A184" s="1">
+        <v>5041228</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>21412412</v>
+      <c r="A185" s="1">
+        <v>5041619</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>21412412</v>
+      <c r="A186" s="1">
+        <v>5042106</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>21412412</v>
+      <c r="A187" s="1">
+        <v>5042844</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>21412412</v>
+      <c r="A188" s="1">
+        <v>5044514</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>21412412</v>
+      <c r="A189" s="1">
+        <v>5044987</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>21412412</v>
+      <c r="A190" s="1">
+        <v>5045894</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>21412412</v>
+      <c r="A191" s="1">
+        <v>5049274</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>21412412</v>
+      <c r="A192" s="1">
+        <v>5050149</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>21412412</v>
+      <c r="A193" s="1">
+        <v>5051011</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>21412412</v>
+      <c r="A194" s="1">
+        <v>5051018</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>21412412</v>
+      <c r="A195" s="1">
+        <v>5054268</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>21412412</v>
+      <c r="A196" s="1">
+        <v>5054548</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>21412412</v>
+      <c r="A197" s="1">
+        <v>5054874</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>21412412</v>
+      <c r="A198" s="1">
+        <v>5054935</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>21412412</v>
+      <c r="A199" s="1">
+        <v>5055996</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>21412412</v>
+      <c r="A200" s="1">
+        <v>5056019</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>21412412</v>
+      <c r="A201" s="1">
+        <v>5056053</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <v>21412412</v>
+      <c r="A202" s="1">
+        <v>5056127</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <v>21412412</v>
+      <c r="A203" s="1">
+        <v>5056251</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>21412412</v>
+      <c r="A204" s="1">
+        <v>5056638</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>21412412</v>
+      <c r="A205" s="1">
+        <v>5056655</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206">
-        <v>21412412</v>
+      <c r="A206" s="1">
+        <v>5058765</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>21412412</v>
+      <c r="A207" s="1">
+        <v>5062249</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>21412412</v>
+      <c r="A208" s="1">
+        <v>5062993</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209">
-        <v>21412412</v>
+      <c r="A209" s="1">
+        <v>5064930</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>21412412</v>
+      <c r="A210" s="1">
+        <v>5069473</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211">
-        <v>21412412</v>
+      <c r="A211" s="1">
+        <v>5070521</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212">
-        <v>21412412</v>
+      <c r="A212" s="1">
+        <v>5072932</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213">
-        <v>21412412</v>
+      <c r="A213" s="1">
+        <v>5074531</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>21412412</v>
+      <c r="A214" s="1">
+        <v>5075891</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>21412412</v>
+      <c r="A215" s="1">
+        <v>5075933</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216">
-        <v>21412412</v>
+      <c r="A216" s="1">
+        <v>5076703</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217">
-        <v>21412412</v>
+      <c r="A217" s="1">
+        <v>5077055</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218">
-        <v>21412412</v>
+      <c r="A218" s="1">
+        <v>5090365</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219">
-        <v>21412412</v>
+      <c r="A219" s="1">
+        <v>5092927</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220">
-        <v>21412412</v>
+      <c r="A220" s="1">
+        <v>5093801</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221">
-        <v>21412412</v>
+      <c r="A221" s="1">
+        <v>5095320</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>21412412</v>
+      <c r="A222" s="1">
+        <v>5107904</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223">
-        <v>21412412</v>
+      <c r="A223" s="1">
+        <v>5108601</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224">
-        <v>21412412</v>
+      <c r="A224" s="1">
+        <v>5109595</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225">
-        <v>21412412</v>
+      <c r="A225" s="1">
+        <v>5110931</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226">
-        <v>21412412</v>
+      <c r="A226" s="1">
+        <v>5111528</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227">
-        <v>21412412</v>
+      <c r="A227" s="1">
+        <v>5113552</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>21412412</v>
+      <c r="A228" s="1">
+        <v>5113627</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>21412412</v>
+      <c r="A229" s="1">
+        <v>5118798</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230">
-        <v>21412412</v>
+      <c r="A230" s="1">
+        <v>5127196</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>21412412</v>
+      <c r="A231" s="1">
+        <v>5128540</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>21412412</v>
+      <c r="A232" s="1">
+        <v>5134436</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>21412412</v>
+      <c r="A233" s="1">
+        <v>5134512</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>21412412</v>
+      <c r="A234" s="1">
+        <v>5141812</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235">
-        <v>21412412</v>
+      <c r="A235" s="1">
+        <v>5147687</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236">
-        <v>21412412</v>
+      <c r="A236" s="1">
+        <v>5151035</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237">
-        <v>21412412</v>
+      <c r="A237" s="1">
+        <v>5153713</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238">
-        <v>21412412</v>
+      <c r="A238" s="1">
+        <v>5206020</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239">
-        <v>21412412</v>
+      <c r="A239" s="1">
+        <v>5249603</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240">
-        <v>21412412</v>
+      <c r="A240" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>21412412</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>21412412</v>
+      <c r="A241" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
